--- a/data/trans_bre/P1414-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1414-Habitat-trans_bre.xlsx
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.961197560360663</v>
+        <v>2.020264986019542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.882175710107956</v>
+        <v>2.007891792365143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.463270504127111</v>
+        <v>1.36787383312227</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>1.467800685173283</v>
+        <v>1.441858178206538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5468567442142191</v>
+        <v>0.4631222041941017</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.818184069880743</v>
+        <v>4.773306089027067</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.164943546797029</v>
+        <v>5.13786639776495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.794281431620434</v>
+        <v>3.758462640915942</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>28.69312287770293</v>
+        <v>28.84684428534119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20.3225981405079</v>
+        <v>23.53439640815107</v>
       </c>
     </row>
     <row r="7">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8533875563101475</v>
+        <v>0.8531338653176228</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.307156040289625</v>
+        <v>2.284559406973236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.369561801502753</v>
+        <v>3.403181062812587</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7759395770736635</v>
+        <v>0.668417654371632</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>2.544416870941511</v>
+        <v>2.720295475291416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>8.035104794582118</v>
+        <v>6.083774599944446</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.773782761927502</v>
+        <v>2.762530785980903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.935427403470277</v>
+        <v>4.993984737567754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.378621400336074</v>
+        <v>5.447052482853085</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>25.40842585904873</v>
+        <v>22.5571449689363</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>42.38257142770795</v>
+        <v>43.60650343402197</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
     </row>
@@ -796,20 +796,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.073476172258283</v>
+        <v>1.004477428174673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.731941035475198</v>
+        <v>1.837447236289479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.793298678477208</v>
+        <v>1.786152277107121</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>1.355972831981676</v>
+        <v>2.127411108302443</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.336768295921021</v>
+        <v>1.324110942734756</v>
       </c>
     </row>
     <row r="12">
@@ -820,18 +820,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.349052330577858</v>
+        <v>3.453887805726823</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.35278384734719</v>
+        <v>4.508934220394291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.168709110603655</v>
+        <v>3.981554608817924</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>26.12106192157287</v>
+        <v>30.30833416733423</v>
       </c>
     </row>
     <row r="13">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.773098789161916</v>
+        <v>1.883919813226641</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.572794133923131</v>
+        <v>1.637206440440941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.427248517384509</v>
+        <v>3.428429533100445</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2.264666649603342</v>
+        <v>2.279566323585283</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.068170329240959</v>
+        <v>1.219189880930757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3.624317101443233</v>
+        <v>3.548904352851511</v>
       </c>
     </row>
     <row r="15">
@@ -898,20 +898,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.096870326361667</v>
+        <v>4.116613169981008</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.962034879588806</v>
+        <v>4.142236452795412</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.69695737164411</v>
+        <v>5.827611471691753</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>15.19283157272823</v>
+        <v>13.70293542048861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25.29771244172184</v>
+        <v>27.05721109769492</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>3.114612478064324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.750390166777931</v>
+        <v>3.750390166777932</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>11.11631815191963</v>
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.850336103148536</v>
+        <v>1.839175168900386</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.447101217413398</v>
+        <v>2.460651338248452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.198793557989743</v>
+        <v>3.247492281455887</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>4.87534574971626</v>
+        <v>4.911671116281769</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>3.759079764307096</v>
+        <v>4.137698311720307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>4.894706588236397</v>
+        <v>5.202651470471274</v>
       </c>
     </row>
     <row r="18">
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.967887553548659</v>
+        <v>3.01324599467263</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.782090330666556</v>
+        <v>3.816024002496906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.335259873724833</v>
+        <v>4.344836256308467</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26.46310813302309</v>
+        <v>31.21959052557189</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15.72159171690586</v>
+        <v>15.12487806988341</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17.82124015407297</v>
+        <v>16.72057274049902</v>
       </c>
     </row>
     <row r="19">
